--- a/导入功能测试数据/lng导入测试数据.xlsx
+++ b/导入功能测试数据/lng导入测试数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>公司名称</t>
   </si>
@@ -200,6 +200,10 @@
   </si>
   <si>
     <t>13P450L-262-26</t>
+  </si>
+  <si>
+    <t>已补贴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1170,12 +1174,13 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1378,7 +1383,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">

--- a/导入功能测试数据/lng导入测试数据.xlsx
+++ b/导入功能测试数据/lng导入测试数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>公司名称</t>
   </si>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>已补贴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴日期</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -797,8 +801,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,19 +1178,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1203,10 +1211,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1222,11 +1233,14 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1">
+        <v>42948</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1242,11 +1256,14 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1">
+        <v>42949</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1262,11 +1279,14 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1">
+        <v>42950</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1282,11 +1302,14 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1">
+        <v>42951</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1302,11 +1325,14 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1">
+        <v>42952</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1322,11 +1348,14 @@
       <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1">
+        <v>42953</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1342,11 +1371,14 @@
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1">
+        <v>42954</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1362,11 +1394,14 @@
       <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1">
+        <v>42955</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1382,11 +1417,14 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1">
+        <v>42956</v>
+      </c>
+      <c r="H10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1402,11 +1440,14 @@
       <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1">
+        <v>42957</v>
+      </c>
+      <c r="H11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1422,11 +1463,14 @@
       <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1">
+        <v>42958</v>
+      </c>
+      <c r="H12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1442,11 +1486,14 @@
       <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1">
+        <v>42959</v>
+      </c>
+      <c r="H13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1462,11 +1509,14 @@
       <c r="F14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1">
+        <v>42960</v>
+      </c>
+      <c r="H14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1482,11 +1532,14 @@
       <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1">
+        <v>42961</v>
+      </c>
+      <c r="H15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1502,11 +1555,14 @@
       <c r="F16" t="s">
         <v>55</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1">
+        <v>42962</v>
+      </c>
+      <c r="H16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1522,11 +1578,14 @@
       <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1">
+        <v>42963</v>
+      </c>
+      <c r="H17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1542,7 +1601,10 @@
       <c r="F18" t="s">
         <v>61</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1">
+        <v>42964</v>
+      </c>
+      <c r="H18" t="s">
         <v>11</v>
       </c>
     </row>

--- a/导入功能测试数据/lng导入测试数据.xlsx
+++ b/导入功能测试数据/lng导入测试数据.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="lng导入测试数据" sheetId="1" r:id="rId1"/>
+    <sheet name="数据案例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="64">
   <si>
     <t>公司名称</t>
   </si>
@@ -1181,7 +1182,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1612,4 +1613,442 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>42948</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42949</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
+        <v>42950</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>42951</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42952</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42953</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42954</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42955</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42956</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42957</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1">
+        <v>42958</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42959</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42960</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1">
+        <v>42961</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="1">
+        <v>42962</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="1">
+        <v>42963</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="1">
+        <v>42964</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>